--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_move.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_move.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -64,13 +64,88 @@
     <t xml:space="preserve">z0bug.move_2</t>
   </si>
   <si>
-    <t xml:space="preserve">SAJ/0807</t>
+    <t xml:space="preserve">&lt;1-01-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagata RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fy_2020</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.move_3</t>
   </si>
   <si>
-    <t xml:space="preserve">RdA 1040-20% - Notaio Decimo Jackson</t>
+    <t xml:space="preserve">&lt;1-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affitto 1.mo Trimestre 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1-04-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affitto 2.do Trimestre 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1-07-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affitto 3.zo Trimestre 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1-10-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affitto 4.to Trimestre 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affitto 1.mo Trimestre 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fy_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####-04-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affitto 2.do Trimestre 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####-07-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affitto 3.zo Trimestre 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####-10-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affitto 4.to Trimestre 2021</t>
   </si>
 </sst>
 </file>
@@ -186,13 +261,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.84"/>
@@ -247,48 +322,196 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.3" right="0.3" top="0.609722222222222" bottom="0.370138888888889" header="0.1" footer="0.1"/>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_move.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_move.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Capitale sociale</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.misc</t>
+    <t xml:space="preserve">z0bug.jou_misc</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fy_2019</t>
@@ -264,10 +264,10 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.84"/>
@@ -301,7 +301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -312,7 +312,7 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -333,7 +333,7 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -354,7 +354,7 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -375,7 +375,7 @@
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -396,7 +396,7 @@
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -417,7 +417,7 @@
       <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -438,7 +438,7 @@
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -459,7 +459,7 @@
       <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -480,7 +480,7 @@
       <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -501,7 +501,7 @@
       <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_move.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_move.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -43,73 +43,70 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;2-12-99</t>
+    <t xml:space="preserve">z0bug.move_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;002-12-99</t>
   </si>
   <si>
     <t xml:space="preserve">Capitale sociale</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.jou_misc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.fy_2019</t>
+    <t xml:space="preserve">external.MISC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fy_%(year)s</t>
   </si>
   <si>
     <t xml:space="preserve">entry</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;1-01-15</t>
+    <t xml:space="preserve">z0bug.move_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;001-01-15</t>
   </si>
   <si>
     <t xml:space="preserve">Pagata RA</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.fy_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;1-01-31</t>
+    <t xml:space="preserve">z0bug.move_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;001-01-31</t>
   </si>
   <si>
     <t xml:space="preserve">Affitto 1.mo Trimestre 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;1-04-05</t>
+    <t xml:space="preserve">z0bug.move_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;001-04-05</t>
   </si>
   <si>
     <t xml:space="preserve">Affitto 2.do Trimestre 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;1-07-05</t>
+    <t xml:space="preserve">z0bug.move_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;001-07-05</t>
   </si>
   <si>
     <t xml:space="preserve">Affitto 3.zo Trimestre 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;1-10-05</t>
+    <t xml:space="preserve">z0bug.move_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;001-10-05</t>
   </si>
   <si>
     <t xml:space="preserve">Affitto 4.to Trimestre 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_7</t>
+    <t xml:space="preserve">z0bug.move_07</t>
   </si>
   <si>
     <t xml:space="preserve">####-01-31</t>
@@ -118,10 +115,7 @@
     <t xml:space="preserve">Affitto 1.mo Trimestre 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.fy_2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_8</t>
+    <t xml:space="preserve">z0bug.move_08</t>
   </si>
   <si>
     <t xml:space="preserve">####-04-05</t>
@@ -130,7 +124,7 @@
     <t xml:space="preserve">Affitto 2.do Trimestre 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_9</t>
+    <t xml:space="preserve">z0bug.move_09</t>
   </si>
   <si>
     <t xml:space="preserve">####-07-05</t>
@@ -264,10 +258,10 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E11"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.84"/>
@@ -337,7 +331,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -345,20 +339,20 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -366,20 +360,20 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
@@ -387,20 +381,20 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -408,20 +402,20 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>12</v>
@@ -429,20 +423,20 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>12</v>
@@ -450,20 +444,20 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
@@ -471,20 +465,20 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>12</v>
@@ -492,20 +486,20 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>12</v>
